--- a/MatlabFunction/Matlab EP5.xlsx
+++ b/MatlabFunction/Matlab EP5.xlsx
@@ -899,15 +899,12 @@
   <dimension ref="A1:BH147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:BH147"/>
+      <selection activeCell="AW2" sqref="AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -921,9 +918,6 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
@@ -937,9 +931,6 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="Z1" s="1" t="s">
         <v>3</v>
       </c>
@@ -953,9 +944,6 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
-      <c r="AK1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="AL1" s="1" t="s">
         <v>4</v>
       </c>
@@ -969,9 +957,6 @@
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
-      <c r="AW1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="AX1" s="1" t="s">
         <v>5</v>
       </c>
@@ -987,7 +972,9 @@
       <c r="BH1" s="1"/>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1021,7 +1008,9 @@
       <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1055,7 +1044,9 @@
       <c r="X2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="Z2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1089,7 +1080,9 @@
       <c r="AJ2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AK2" s="1"/>
+      <c r="AK2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AL2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1123,7 +1116,9 @@
       <c r="AV2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AW2" s="1"/>
+      <c r="AW2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AX2" s="1" t="s">
         <v>6</v>
       </c>
